--- a/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
+++ b/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>Serie</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6853,6 +6856,26 @@
         <v>301</v>
       </c>
     </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>288</v>
+      </c>
+      <c r="B284">
+        <v>323</v>
+      </c>
+      <c r="C284">
+        <v>144</v>
+      </c>
+      <c r="D284">
+        <v>390</v>
+      </c>
+      <c r="E284">
+        <v>200</v>
+      </c>
+      <c r="F284">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
+++ b/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>Serie</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:F285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6876,6 +6879,26 @@
         <v>316</v>
       </c>
     </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>289</v>
+      </c>
+      <c r="B285">
+        <v>321</v>
+      </c>
+      <c r="C285">
+        <v>138</v>
+      </c>
+      <c r="D285">
+        <v>392</v>
+      </c>
+      <c r="E285">
+        <v>204</v>
+      </c>
+      <c r="F285">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
+++ b/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Serie</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6899,6 +6902,26 @@
         <v>313</v>
       </c>
     </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286">
+        <v>316</v>
+      </c>
+      <c r="C286">
+        <v>141</v>
+      </c>
+      <c r="D286">
+        <v>387</v>
+      </c>
+      <c r="E286">
+        <v>199</v>
+      </c>
+      <c r="F286">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
+++ b/12/5/Spreads soberanos EMBI global spread 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Serie</t>
   </si>
@@ -887,6 +887,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6922,6 +6925,26 @@
         <v>310</v>
       </c>
     </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287">
+        <v>327</v>
+      </c>
+      <c r="C287">
+        <v>156</v>
+      </c>
+      <c r="D287">
+        <v>398</v>
+      </c>
+      <c r="E287">
+        <v>207</v>
+      </c>
+      <c r="F287">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
